--- a/database/dataver2 (1).xlsx
+++ b/database/dataver2 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\materials-fpt-cn4\PRJ301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPTSHOP\OneDrive\Documents\NetBeansProjects\Project-Final-PRJ301\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="896">
   <si>
     <t>Tee Tele Bear</t>
   </si>
@@ -3097,6 +3097,264 @@
       </rPr>
       <t>https://monatabluelight.com/images/products/2023/11/19/large/somi-tay-dai_1626516495_1700372260.jpg,</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Áo sơ mi Basic Nayy Logo Unisex là một trong những sản phẩm bán chạy nhất của MONAT BLUE. Áo được làm từ chất liệu kate nhật cao cấp, mềm mịn, thấm hút mồ hôi tốt, mang lại cảm giác thoải mái cho người mặc. Áo có form rộng, phù hợp với cả nam và nữ. Thiết kế đơn giản, tinh tế, dễ phối đồ với nhiều phong cách khác nhau.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Túi Tote Monat Blue - version 2023'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Áo Ba lỗ \xa0được thiết kế với form dáng basic, phù hợp cho cả nam lẫn nữ. Được thêu logo Monat Blue là điểm nhấn của sản phẩm'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Cassette - Một biểu tượng điển hình khi nhắc về quá khứ nhưng không bị mất đi vẻ đẹp hiện đại. Đây làm một trong những cảm hứng mở đầu khi chúng tôi bắt tay vào thiết kế BST RETRO.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sản phẩm Unisex , thích hợp cho cả nam và nữ. Sử dụng chất liệu vải kaki mềm, có độ thoáng cao. Short Mini Logo Monata Bluelight xuất phát từ thiết kế basic, áp dụng cho outfit hàng ngày. Là mẫu short có thiết kế suông rộng, kết hợp lưng tchun,\xa0 kèm dây rút đem lại sự thoải mái khi sử dụng.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Old School Socks là mẫu tất cổ cao, phần đế xù đi êm chân, thấm hút mồ hôi, tạo form ôm chân tốt. Được thiết kế đơn giản, đem đến sự thoải mái khi sử dụng.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'MBL Socks (Short Crew) là mẫu tất cổ ngắn, được dệt bằng chất vải cotton dày dặn, đàn hồi tốt. Thiết kế lỗ thoáng khí dọc thân chân, đảm bảo tính thông thoáng khi sử dụng.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Là một mẫu quần cá tính và năng động, phổ biến với thiết kế gồm nhiều túi hộp. Cargo Pant Monata Bluelight đem đến cho người mặc một chút bụi bặm, và là một điển hình cho phong cách thời trang cá tính, trẻ trung. Như một sứ mệnh của người vận chuyển, đem đến những sự hay ho cho phong cách riêng của bạn.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Được lấy cảm hứng từ Pants 233, Pants Flexible có chung thiết kế với mẫu Pants 233, nhưng được nâng cấp lớn về mặt chất liệu, sử dụng chất liệu kaki thun có độ co dãn cao, nhẹ.\xa0Là lựa chọn thích hợp cho những bạn đang tìm kiếm một mẫu quần basic, ống suông, dễ phối và tiện cho việc vận động mạnh. Có thể dùng cho việc dạo phố, đi chơi, hay đi đến trường hàng ngày, và đi làm ở môi trường không yêu cầu cao về tính lịch sự, và đặc biệt, là sản phẩm ưu thích của những bạn thích chơi những môn thể thao mạo hiểm như Trượt ván, thể thao mạo hiểm, Nhảy đường phố...'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sản phẩm được thiết kế đặc biệt với chất kate Nhật dày dặn, thoáng, ít nhăn (Khi giặt xong không cần ủi). Sơ mi MBL có dáng oversize, kết hợp cổ áo sơ mi basic được ép nhiệt, chắc chắn, cứng và giữ được form sau nhiều lần giặt. Có thể kết hợp cho nhiều outfit đi chơi hay những dịp cần sự nghiêm túc. Điểm nhấn của mẫu áo là chi tiết logo được thêu chắc chắn ở phần túi áo. Đem đến sự lịch sự, kèm theo chút cá tính cho người mặc.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Áo thun màu trắng trơn basic.'; 'Hình ảnh chú gấu teddy được in ở mặt trước của áo thun.'; 'Chú gấu teddy có màu nâu, khuôn mặt đáng yêu với đôi mắt to tròn, chiếc mũi nhỏ nhắn và miệng cười tươi.'; 'Chú gấu teddy đang ôm một chiếc máy sấy tóc màu hồng.'; 'Áo thun có form rộng rãi, thoải mái.'; 'Mô tả:'; 'Áo thun hình gấu teddy là một sản phẩm thời trang dễ thương và đáng yêu, phù hợp cho mọi lứa tuổi.'; 'Chất liệu thun cotton mềm mại, co giãn tốt, thoáng mát, phù hợp với mọi thời tiết.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Áo thun màu trắng đơn giản, dễ phối hợp với nhiều trang phục khác nhau.'; 'In chữ màu đỏ ở mặt trước với nội dung "Work Seriously, Sincere Attitude, Proud Of Our Product", tạo điểm nhấn đặc biệt và thể hiện thông điệp tích cực.'; 'Kiểu dáng: Áo thun unisex, phù hợp cho cả nam và nữ, form áo rộng rãi, thoải mái.'; 'Kích cỡ: Có nhiều size cho bạn lựa chọn từ S đến L.'; 'Màu sắc: Trắng với chữ in đỏ.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Chất liệu: Cotton cao cấp, mềm mại, thoáng mát, thấm hút mồ hôi, mang lại cảm giác dễ chịu khi mặc.'; 'Thiết kế:'; 'Áo thun màu trắng đơn giản nhưng tinh tế, dễ phối hợp với nhiều trang phục khác nhau.'; 'In hình túi màu xanh trên ngực áo với dòng chữ "Monatblue" cùng các chữ nhỏ phía dưới, tạo điểm nhấn độc đáo và phong cách trẻ trung, hiện đại.'; 'Kiểu dáng: Áo thun unisex, phù hợp cho cả nam và nữ, form áo rộng rãi, thoải mái.'; 'Kích cỡ: Có nhiều size cho bạn lựa chọn từ S đến L.'; 'Màu sắc: Trắng với hình in xanh.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ''; 'Tên sản phẩm: MONAT BLUE SHORT M - Quần short kaki trơn thêu Logo M unisex'; 'Chất liệu: Vải kaki cotton cao cấp'; 'Thiết kế basic, đơn giản, dễ phối đồ, phù hợp với nhiều dáng người và phong cách.'; 'Quần có chiều dài vừa phải, không quá ngắn cũng không quá dài, giúp bạn thoải mái vận động.'; 'Quần có 2 túi bên hông tiện lợi để đựng đồ.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'MONAT BLUE - Áo Sơ Mi Kẻ Sọc Tay Dài logo thêu Chất Liệu Oxford unisex'; 'Với thiết kế kẻ sọc tinh tế và logo thêu tinh xảo, chiếc áo sơ mi này không chỉ là một lựa chọn thời trang mà còn là biểu tượng của phong cách và sự tinh tế. Chất liệu Oxford cao cấp mang lại sự thoải mái và độ bền đáng kinh ngạc, tạo nên sự tự tin và sang trọng cho người mặc.'; 'Áo sơ mi unisex này được thiết kế để phản ánh sự đa chiều và cá nhân của bạn. Cho dù bạn là nam hay nữ, chiếc áo này sẽ làm nổi bật vẻ đẹp và phong cách riêng của bạn mỗi khi diện lên.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tên sản phẩm: MONAT BLUE FLANNEL - Áo sơ mi flannel kẻ sọc caro form rộng unisex'; 'Áo sơ mi flannel form rộng này phù hợp cho cả nam và nữ. Chất liệu 100% cotton mềm mại, thoáng mát, thoải mái khi mặc. Họa tiết kẻ caro xanh trắng cổ điển và thời trang. Có thể mặc riêng hoặc phối với các trang phục khác. Phù hợp cho trang phục hàng ngày, đi học, đi làm hoặc đi chơi cuối tuần.'; 'Chi tiết sản phẩm:'; 'Áo có cổ bẻ và tay dài. Form rộng rãi, thoải mái khi mặc cả ngày. Họa tiết kẻ caro được in lên vải bằng kỹ thuật bền bỉ, không phai màu hoặc bong tróc khi giặt.'; 'Hướng dẫn bảo quản:'; 'Giặt máy với nước lạnh cùng với quần áo có màu tương tự. Sấy khô ở nhiệt độ thấp hoặc phơi khô.Không sử dụng thuốc tẩy. Ủi ở nhiệt độ thấp.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Quần Widen Jeans ống rộng cao cấp'; 'Thiết kế ống quần rộng của chiếc quần jean này không chỉ mang lại sự thoải mái tuyệt đối mà còn tạo điểm nhấn độc đáo cho phong cách của bạn. Chất liệu cao cấp được sử dụng kỹ lưỡng, đảm bảo độ bền và mềm mại, giúp bạn tự tin diện mọi nơi mà không gặp bất kỳ khó khăn nào.'; 'MONAT BLUE Widen Jeans là biểu tượng của sự đa chiều và cá nhân. Dành cho cả nam và nữ, chiếc quần jean này dễ dàng kết hợp với nhiều loại áo và phụ kiện khác nhau, từ áo thun đến áo sơ mi, từ giày sneaker đến giày boots, để tạo nên phong cách độc đáo và ấn tượng.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'MONAT BLUE - Quần Jean Basics form suông đứng dáng Regular Straight cao cấp'; 'Với thiết kế form suông đứng dáng Regular Straight, chiếc quần jean này không chỉ mang lại sự thoải mái mà còn tôn lên vẻ đẹp tự nhiên của dáng người. Chất liệu cao cấp được sử dụng cẩn thận, đảm bảo độ bền và mềm mại, giúp bạn tự tin diện từ sáng đến tối mà không cảm thấy mệt mỏi.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Quần kaki ống rộng - Widen kaki pants'; 'Thiết kế ống quần rộng của chiếc quần kaki này không chỉ mang lại sự thoải mái tuyệt đối mà còn tạo điểm nhấn độc đáo cho phong cách của bạn. Chất liệu cao cấp được sử dụng kỹ lưỡng, đảm bảo độ bền và mềm mại, giúp bạn tự tin diện mọi nơi mà không gặp bất kỳ khó khăn nào.'; ''; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tên sản phẩm: MONAT BLUE Tee UNIVERSITY EMBLEM - Áo thun chất cotton form rộng unisex'; 'Áo thun form rộng unisex, phù hợp cho cả nam và nữ. Chất liệu cotton 100% mềm mại, thoáng mát, thấm hút mồ hôi tốt. Logo "MONAT BLUE" được in nổi bật trên ngực áo. Có in huy hiệu của trường đại học cùng với họa tiết hoa văn. Kiểu dáng đơn giản, dễ phối đồ. Có thể mặc đi học, đi chơi, đi làm,...'; 'Logo "MONAT BLUE" được in bằng kỹ thuật in lụa cao cấp, đảm bảo độ bền đẹp. Huy hiệu trường đại học được in bằng kỹ thuật in cao su, đảm bảo độ sắc nét và bền màu. Đường may chắc chắn, tỉ mỉ. Cổ áo tròn, tay ngắn. Form áo rộng rãi, thoải mái.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mô tả sản phẩm'; 'MONAT BLUE Tee CRANE FLOWER - Áo thun in DTG hoa Thiên Điểu chất cotton unisexThương hiệu:'; 'Áo thun trắng basic với họa tiết những bông hoa thiên điểu đầy màu sắc in nổi bật. Chất liệu cotton mềm mại, thoáng mát, thấm hút mồ hôi tốt. Kiểu dáng đơn giản, dễ phối đồ. Phù hợp cho cả nam và nữ. Có thể mặc đi học, đi chơi, đi làm,...'; 'Chi tiết sản phẩm:'; 'Họa tiết hoa cỏ được in bằng kỹ thuật in DTG ( In kỹ thuật số) mực thấm vào sợi chỉ không giống với các loại in decan. Kỹ thuật in DTG giúp áo không bị bí nóng , đảm bảo độ bền đẹp. Đường may chắc chắn, tỉ mỉ. Cổ áo tròn, tay ngắn. Form áo ôm vừa vặn, tôn dáng người mặc.'; 'Hướng dẫn bảo quản:'; 'Giặt máy hoặc giặt tay với nước lạnh. Phơi khô trong bóng râm. Không sấy khô. Ủi ở nhiệt độ thấp.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Áo thun MONAT BLUE Tee SUMMER JOURNEY'; 'Mô tả:'; 'Áo thun form rộng unisex, phù hợp cho cả nam và nữ. Chất liệu cotton 100% mềm mại, thoáng mát, thấm hút mồ hôi tốt. Họa tiết in kỹ thuật số DTG (Direct-to-Garment) sắc nét, bền đẹp. Họa tiết in trên áo là hình ảnh một chiếc xe jeep cổ điển đang chạy trên con đường ven biển, cùng với dòng chữ "SUMMER JOURNEY" (Hành trình mùa hè) hiện tinh thần tự do, phóng khoáng và yêu thích du lịch.Kiểu dáng đơn giản, dễ phối đồ. Có thể mặc đi học, đi chơi, đi làm,...'; 'Chi tiết sản phẩm:'; 'Họa tiết hoa cỏ được in bằng kỹ thuật in DTG ( In kỹ thuật số) mực thấm vào sợi chỉ không giống với các loại in decan. Kỹ thuật in DTG giúp áo không bị bí nóng , đảm bảo độ bền đẹp. Đường may chắc chắn, tỉ mỉ. Cổ áo tròn, tay ngắn. Form áo ôm vừa vặn, tôn dáng người mặc.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mô tả sản phẩm: Áo thun MONATBLUE Est.2020'; 'Mô tả:'; 'Áo thun form rộng unisex, phù hợp cho cả nam và nữ. Chất liệu cotton 100% mềm mại, thoáng mát, thấm hút mồ hôi tốt. Ngực áo in logo "MONATBLUE" cách điệu với dòng chữ "Est.2020" (thành lập năm 2020) bên dưới. Kiểu dáng đơn giản, dễ phối đồ. Thích hợp đi học, đi chơi, đi làm,...'; 'Chi tiết sản phẩm:'; 'Logo được in bằng kỹ thuật in DTG (in kỹ thuật số) cao cấp, đảm bảo độ bền đẹp. Đường may chắc chắn, tỉ mỉ. Cổ áo tròn, tay ngắn. Form áo rộng rãi, thoải mái.'; 'Hướng dẫn bảo quản:'; 'Giặt máy hoặc giặt tay với nước lạnh. Phơi khô trong bóng râm. Không sấy khô. Ủi ở nhiệt độ thấp.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ''; 'MONAT BLUE Tee LILY FLOWER - Áo thun in DTG hoa Hoa LiLy chất cotton unisex'; 'Mô tả:'; 'Áo thun Cream\xa0basic với họa tiết những bông hoa huệ đầy màu sắc in nổi bật. Chất liệu cotton mềm mại, thoáng mát, thấm hút mồ hôi tốt.Kiểu dáng đơn giản, dễ phối đồ. Phù hợp cho cả nam và nữ. Có thể mặc đi học, đi chơi, đi làm,...'; 'Chi tiết sản phẩm:'; 'Họa tiết hoa cỏ được in bằng kỹ thuật in DTG ( in kỹ thuật số), đảm bảo độ bền đẹp. Đường may chắc chắn, tỉ mỉ. Cổ áo tròn, tay ngắn.Form áo ôm vừa vặn, tôn dáng người mặc.'; 'Hướng dẫn bảo quản:'; 'Giặt máy hoặc giặt tay với nước lạnh. Phơi khô trong bóng râm. Không sấy khô. Ủi ở nhiệt độ thấp.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ÁO THUN CLASSIC LOGO'; 'Áo thun với hình in Logo thương hiệu Monat blue phiên bản classic.'; 'Chi tiết sản phẩm:'; 'Họa tiết được in bằng kỹ thuật in DTG ( In kỹ thuật số) mực thấm vào sợi chỉ không giống với các loại in decan. Kỹ thuật in DTG giúp áo không bị bí nóng , đảm bảo độ bền đẹp. Đường may chắc chắn, tỉ mỉ. Cổ áo tròn, tay ngắn. Form áo ôm vừa vặn, tôn dáng người mặc.'; 'Hướng dẫn bảo quản:'; 'Giặt máy hoặc giặt tay với nước lạnh.Phơi khô trong bóng râm.Không sấy khô.Ủi ở nhiệt độ thấp.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Loại trang phục: Quần ống suông Unisex- Dùng để mang đi dạo phố, đi học, và những nơi làm việc không yêu cầu tính lịch sự quá cao ( Món đó khá là ưu thích của dân freelance, và những bạn trẻ)'; 'Độ tuổi phù hợp: Phù hợp với mọi lứa tuổi và giới tính, dễ mang, dễ mặc, và dễ phối đồ, có thể kết hợp với sơ mi, áo thun, polo... đều được.'; 'Mẫu quần basic, dễ dàng\xa0 kết hợp cho nhiều outfit. Pant233 Monata Bluelight phù hợp cho những bạn muốn tìm đến sự đơn giản và tinh tế ở một mẫu quần dáng suông, rộng vừa. Đa năng, với nhiều cách phối và nhiều màu sắc để lựa chọn.'; 'Sử dụng loại vải kaki mềm, độ co dãn thấp, vì thế khi mang lên, chiếc quần sẽ tạo được một phom dáng cứng cáp, mạnh mẽ hơn.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Con Rồng Cháu Tiên'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Rồng Vô Tri'; 'Áo thun với thiết kế Rồng Vô Tri say Hello 2024'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Heart - Valentine 2024 version'; 'Sản phẩm áo thun với phiên bản Valentine 2024 với 3 sắc màu: Black - Red - Sky Blue'; 'Với thiết kế Trái tim được in mực nước DTG, đảm bảo độ bền lâu.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Heart - Valentine 2024 version'; 'Sản phẩm áo thun với phiên bản Valentine 2024 với 3 sắc màu: Black - Red - Sky Blue'; 'Với thiết kế Tráu tim được in mực nước DTG, đảm bảo độ bền lâu.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Jacket M icon'; 'Mô tả sản phẩm: Đây là một chiếc áo khoác nỉ MONAT BLUE Jacket M icon với chất liệu nỉ cao cấp. Áo được thiết kế với tone màu kem và đen, tạo nên sự phối màu rất đẹp mắt và phong cách.'; 'Áo được trang bị khoá kéo chắc chắn, giúp bạn dễ dàng mặc áo vào và cởi ra. Logo của MONAT được thêu tỉ mỉ trên áo, tạo nên điểm nhấn thời trang và độc đáo.'; 'Đặc biệt, áo khoác này phù hợp cho cả nam và nữ, với kiểu dáng unisex. Bạn có thể tự tin mặc áo trong những dịp đi chơi, đi làm hay gặp gỡ bạn bè.'; 'Với MONAT BLUE Jacket M icon - Áo khoác Jacket Nỉ Unisex, bạn sẽ không chỉ có một chiếc áo ấm áp và thoải mái mà còn thể hiện phong cách basic thời thượng. Hãy trải nghiệm và cảm nhận sự hào hứng từ sản phẩm này ngay hôm nay!'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Cardigan Monata'; 'Dòng sản phẩm Cardigan của Monata, với thiết kế đơn giản cùng logo "monat blue"'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Cardigan Monata'; 'Dòng sản phẩm Cardigan của Monata, với thiết kế đơn giản cùng logo "monat blue"'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Nước hoa xịt thơm vải Monat blue là sản phẩm được điều chế độc quyền với công thức khác biệt thị trường, mang đến trải nghiệm hài lòng từ lần xịt thử đầu tiên.'; 'Thể tích: 5ml'; 'Công dụng:'; 'Khử mùi ẩm, mốc, hôi trên quần áo, giúp quần áo luôn thơm tho, sạch sẽ.'; 'Ngăn ngừa nấm mốc, vi khuẩn, bảo vệ quần áo khỏi hư hỏng.'; 'Hương thơm nhẹ nhàng, dễ chịu, tạo cảm giác thư thái, thoải mái.'; 'Cách sử dụng:'; 'Lắc đều chai nước hoa trước khi sử dụng.'; 'Xịt nước hoa lên quần áo khô, cách xa khoảng 20 cm.'; 'Có thể xịt trực tiếp lên quần áo hoặc xịt vào tủ quần áo, ngăn kéo để khử mùi và lưu hương lâu.'; 'Lưu ý:'; 'Để xa tầm tay trẻ em.'; 'Tránh tiếp xúc với mắt.'; 'Không xịt trực tiếp vào da'; 'Hướng dẫn bảo quản:'; 'Bảo quản nơi khô ráo, thoáng mát, tránh ánh nắng trực tiếp.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Four Seasons'; 'Sweater\xa0với thiết kế lấy cảm hứng từ 4 mùa Xuân - Hạ - Thu - Đông có chút dễ thương và ngộ nghĩnh.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Ocean'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Holiday Icon'; 'Mẫu sweater với các icon với nét vẽ ngộ nghĩnh, dễ thương, đại diện cho những hoạt động của mùa cuối năm.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater basic Monat Blue'; 'Phiên bản mới 2024'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater 24'; 'Dòng sản phẩm Sweater mới với thiết kế đón chào 1 năm mới 2024 sắp đến.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater 24'; ''; 'Dòng sản phẩm Sweater mới với thiết kế đón chào 1 năm mới 2024 sắp đến.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TEE 24'; 'Sản phẩm áo thun cho năm mới 2024.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'T-shirt 4Season'; ''; 'Chiếc áo thun với thiết kế lấy cảm hứng từ 4 mùa Xuân - Hạ - Thu - Đông có chút dễ thương và ngộ nghĩnh.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'SWEATER SNOW'; 'Sweater Snow với thiết kế graphic khung cảnh tuyết rơi trong đêm giáng sinh, là một gợi ý item cực kì phù hợp cho mùa cuối năm'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'SWEATER CAMP'; ''; 'Sweater Camp với thiết kế graphic khung cảnh lửa trại đêm, mang đến cảm giác ấm áp cho dịp Thu Đông.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Retro'; ''; 'Chất liệu: Nỉ chân cua'; 'Size: M/L'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hoodie Zip Monat Blue'; ''; 'Áo Hoodie Monat phiên bản mới với dây kéo khoá, chất liệu vải nỉ chân cua dày dặn, giúp giữ ấm cơ thể vào những ngày lạnh giá. Với form dáng hiện đại, áo hoodie này phù hợp cho cả nam và nữ, mang lại sự thoải mái và phong cách thời trang đơn giản nhưng không kém phần nổi bật.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Rose in the Garden'; ''; 'Một thiết kế vườn hoa nhẹ nhàng, trên nền áo hồng bay bổng.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Ocean'; 'Một thiết kế hơi hướng đại dương với chiếc thuyền nhỏ trên đại dương xanh, cùng với tone áo màu Navy mang đến một cảm giác êm ái, dịu nhẹ, nhưng cũng không kém phần nổi bật.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Short Monata Blue'; 'Thiết kế thêu "Love is Blue" và "Monat Blue" nhẹ nhàng, chiếc quần short với 2 màu Cream và Navy sẽ cực kì phù hợp cho những ai theo đuổi phong cách đơn giản nhưng có chút cá tính.'; 'Chất liệu: kaki mềm mịn, co dãn nhẹ'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Short Colors of Summer'; 'Một sản phẩm quần kaki mới với thiết kế thêu bắt mắt. Mang "màu sắc của mùa hè", có chút dễ thương lại cá tính.'; 'Phần logo thêu sắc nét, đảm bảo độ bền sau nhiều lần giặt'; 'Chất liệu: kaki mềm mịn, có độ co dãn nhẹ'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Pants 216 - Widen Legs'; ''; 'Chiếc quần kaki mới Summer 2023, được thiết kế với form Widen Legs - phần form ống rộng, mang đến sự thoải mái và cá tính.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'T-Shirt Monat Blue Big Logo'; 'Sản phẩm áo thun mới cho Summer 2023 với thiết kế tên thương hiệu lớn, cá tính cho mùa hè sôi động.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'T-shirt Youngster - Summer 2023'; ''; 'Phiên bản 2023 của Tee Our Youth, Tee Youngster mang phối màu trắng - navy,\xa0cùng thiết kế thêu logo "Monat Blue :x " trước ngưc có phần cá tính và mạnh mẽ hơn.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'DỊCH VỤ GÓI QUÀ'; 'Đây là dịch vụ gói quà\xa0khi bạn muốn đặt sản phẩm để làm quà tặng.'; 'Hộp quà bao gồm'; 'Tại phần Ghi chú đặt hàng: Hãy ghi nội dung mà bạn muốn viết tại thiệp. Tụi mình sẽ viết tay theo yêu cầu của bạn nhen!'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Spring Flower'; 'Một thiết kế cho phiên bản mùa xuân 2023, với một bức tranh mùa xuân đầy hoa và nắng gió'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tee Basic Heart'; 'Cùng với chi tiết "Heart" nhỏ xinh, hi vọng "bạn" sẽ thích thiết kế này từ Monata.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BEANIE 2023'; 'Thiết kế basic dễ dàng phối với các trang phục khác nhau.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater\xa0Monata\xa0/\xa0Fall/Winter 2022'; 'Một trong những dòng sản phẩm sweater\xa0mới của Monata cho mùa thu đông 2022. Đây là mẫu\xa0Thiết kế Basic của năm 2022, với hình in logo thương hiệu là điểm nhấn.'; ''; 'Chất liệu: Nỉ bông cotton, 320gsm'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Retro'; ''; 'Chất liệu: Nỉ bông cotton, 320gsm'; 'Size: M/L'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Special Armorial | Fall/Winter 2022'; ''; 'Chiếc Sweater với hình thêu huy hiệu đơn giản nhưng là điểm nhấn của chiếc áo, với ý nghĩ khoảng thời gian 4 năm của thương hiệu Monata đã trải qua. Mỗi giai đoạn đều là một cột mốc rất đáng nhớ.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater\xa0Beetles'; 'Một thiết kế cho phiên bản mùa xuân 2023, với một bức tranh Chú bọ cánh cam cùng cây cỏ mùa xuân'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Basic Heart\xa0 /\xa0 Fall/Winter 2022'; 'Một trong những dòng sản phẩm sweater mới của Monata cho mùa thu đông 2022. Đây là mẫu\xa0Thiết kế Basic của năm 2022, với hình logo thương hiệu, cùng chi tiết "Heart" nhỏ xinh.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater Art'; 'Thiết kế được lấy cảm hứng từ những bức tượng Moai, được thiết kế lại theo nét vẽ tươi vui hơn, nay đã có mặt trên phiên bản Áo Sweater.'; ''; 'Chất liệu: Nỉ bông cotton.'; 'Size: M/L'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hoodie Monata\xa0/\xa0Fall/Winter 2022'; 'Một trong những dòng sản phẩm hoodie mới của Monata cho mùa thu đông 2022. Đây là mẫu\xa0Thiết kế Basic của năm 2022, với hình in logo thương hiệu là điểm nhấn.'; ''; 'Chất liệu: Nỉ bông cotton, 320gsm'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hoodie Basic Heart | Fall/Winter 2022'; ''; 'Một trong những dòng sản phẩm Hoodie\xa0mới của Monata cho mùa thu đông 2022. Đây là mẫu\xa0Thiết kế Basic của năm 2022, với hình logo thương hiệu, cùng chi tiết "Heart" nhỏ xinh.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweater\xa0Da Nang (Cầu Sông Hàn) | Fall/Winter 2022'; 'Sweater Cầu Sông Hàn\xa0nằm trong Danang Series, mô tả những địa danh tượng trưng của Đà Nẵng được thể hiện qua góc nhìn trong tờ báo xưa.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hoodie Hug | Fall/Winter 2022'; ''; 'Hoodie Hug (Một cái ôm), với thiết kế một bức tranh trừu tượng. Tùy theo cảm nhận của mỗi người, với Monata đây là hình ảnh 2 người đang "trao cái ôm" giữa bầu trời thu.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hoodie Da Nang (Nhà thờ Con Gà) | Fall/Winter 2022'; 'Hoodie\xa0Nhà thờ Con Gà nằm trong Danang Series, mô tả những địa danh tượng trưng của Đà Nẵng được thể hiện qua góc nhìn trong tờ báo xưa.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Blazer Original\xa0/\xa0Fall-Winter 2022'; 'Với mẫu áo này, Monata hướng đến một sự mới lạ hơn trong chính phong cách mà mình duy trình suốt 2 năm qua kể từ khi thành lập, nay thấy chín chắn hơn, trưởng thành hơn, chúng mình quyết định thử sức với điều mới nhưng không quên đi ADN của mình là sự phá cách, đề cao tính cá nhân\xa0trong đó.Về chất liệu: sử dụng loại vải kaki mềm co dãn, nhẹ (có thể nói là rất nhẹ) , và đêm một lớp lót ở bên trong , thiết kế với dáng vừa, cầu vai được nâng cao tạo sự khỏe khoắn và chắc chắn là sẽ phù hợp với những môi trường yêu cầu tính lịch sự cao hơn so với đường phố.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Áo khoác nỉ dây kéo Monata Bluelight, thiết kế gồm 1 lớp với\xa0chất liệu nỉ chân cua.'; 'Size: M/L (40-70kg)'; 'Form: regular fit'; 'Áo unisex phù hợp cho cả nam và nữ'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sơ mi tăm nhung - được sử dụng với một chất liệu mới so với các thiết kế trước đây.'; 'Chiếc sơ mi\xa0này\xa0có thể dùng để\xa0phối theo nhiều cách khác nhau, một chiếc áo chính mặc cùng quần kaki, hoặc một chiếc áo khoác bên ngoài một chiếc áo thun mỏng.'; 'Sản phẩm unisex, phù hợp cho cả nam và nữ.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BACKPACK MONATA 02\xa0- Mẫu Ba-lô đầu tiên của nhà Monata với thiết kế tối giản'; 'Phù hợp để sử dụng mang đi học, đi làm với thiết kế đơn giản và gọn nhẹ.'; 'Chất liệu: vải dù chống thấm nước'; 'Số ngăn:'; 'Kích thước:'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Áo thun tay dài Basic (Fall/Winter 2022)'; 'Chất liệu : 100% Cotton'; '250gsm'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TEE OUR YOUTH'; 'Là sản phẩm đầu tiên trong BST OUR YOUTH (Thanh Xuân) của Monata Bluelight.'; 'Sản phẩm với phối màu trắng-xanh kết hợp sẽ mang đến sự nhẹ nhàng, ngây thơ, và một chút "throw back" về những kỉ niệm đã qua.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Lấy cảm hứng từ những chiếc “túi vận chuyển”, mẫu quần short với cái đặc biệt Short Cargo\xa0Monata Bluelight.'; 'Mang vẻ ngoài bụi bặm và đầy cá tính, sản phẩm sẽ phù hợp cho những ai đang muốn tìm kiếm sự mới mẻ trong phong cách hàng ngày. Với những outfit cá tính, mới lạ.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweatshorts Heart - BST HEART'; 'Một chiếc quần short nỉ, nhưng sẽ đảm bảo các yếu tố để có thể mặt vào bất kì mùa mào'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sản phẩm nổi bật với dòng chữ\xa0"More Interesting Life" - Lấy cảm hứng từ chính Slogan của Monata Bluelight.'; 'Được làm từ chất liệu vải Flexible có độ co dãn cao, thấp hút tốt, quần phù hợp để mang vào mùa hè, có tính ứng dụng cao: mặc đi chơi hoặc ở nhà.'; 'Form quần thiết kế basic, phù hợp cho cả nam và nữ'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ''; 'Một mẫu quần mới nữa lại ra đời - Pants 318'; 'Khác với pants 233, pants 318 được chỉnh sửa về mặt thiết kế để phù hợp với những môi trường lịch sự nhưng vẫn theo tiêu chí tối giản. Một chiếc quần kaki với thiết kế ống quần suông thẳng,gọn, phần lưng gài kết hợp với lưng thun để khi không dùng đến thắt lưng mà vẫn đem lại sự chỉnh chu, lịch sự và đẹp.'; 'Độ rộng ống 17-18-19-20 tùy theo size. Dễ dàng kết hợp với áo vest, áo polo, áo sơ mi,... Thích hợp với môi trường công sở, trường học.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CANVAS BAG'; 'Một thiết kế túi đeo chéo cơ bản, phù hợp cho cả nam lẫn nữ. Canvas Bag được đệm một lớp lót dù bên trong, kích thước vừa đủ để có thể đựng những "item cần thiết" cho những buổi đi chơi, đi học.'; 'Ngoài ra, đây sẽ là 1 phụ kiện hay ho để kết hợp trong nhiều bộ outfit khác nhau.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Messenger Canvas Bag - túi đeo chéo'; 'Với thiết kế túi to, Messenger bag có thể sử dụng để đựng nhiều đồ cần thiết nếu đi học hoặc đi chơi.'; 'Điểm nhấn của túi là phần dây cột thủ công - có thể điều chỉnh độ dài của túi phù hợp với chiều cao cơ thể bạn.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'J.Denim - Sản phẩm quần Jeans đầu tiên của MBL. Thuộc BST Xuân Hè 2022'; 'Đây là một chiếc quần cơ bản, nên có trong tủ đồ, phù hợp với mọi giới tính,'; 'Thiết kế form suông rộng, lưng kết hợp giữa chun và nút gài, có thể dễ dàng kết hợp cùng Polo, Tee, áo thun'; 'Chất liệu: Jeans'; 'Size M /L/XL/2XL'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WORK PANTS 312 - Một sản phẩm\xa0mới trong danh mục quần dài của MBL.'; 'Sau những chiếc quần form rộng, Workpants 312 được thiết kế để đáp ứng nhu cầu một chiếc quần có phần gọn gàn và chỉnh chu hơn, phù hợp để đi làm hoặc sử dụng trong những dịp ưu tiên tính lịch sự.'; 'Được sử dụng chất liệu kaki mềm, co dãn (tương tự Pants Flexible), cùng lưng quần kết hợp chun và nút gài, Workpants 312 có thể được mặc nguyên một ngày dài những vẫn đảm bảo sự thoải mái.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweatpants - mẫu quần đầu tiên được ra đời sau dòng "quần kaki" ở MBL. Với thiết kế basic, form rộng và chất vải nỉ chân cua, quần phù hợp mặc trong mọi thời thiết.'; 'Mẫu quần đa năng, với nhiều cách phối : dễ dàng kết hợp với T-shirt, Hoodie, Sweater và sử dụng trong nhiều hoàn cảnh: đi làm, đi học, ở nhà'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Nếu muốn đơn hàng của bạn được đóng gói bằng hộp carton giấy, có thể add sản phẩm vào giỏ hàng.'; 'Chất liệu: giấy carton'; 'Kích thước: Ngang x Dài x Cao'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Loại trang phục: Quần ống suông Unisex- Dùng để mang đi dạo phố, đi học, và những nơi làm việc không yêu cầu tính lịch sự quá cao ( Món đó khá là ưu thích của dân freelance, và những bạn trẻ)'; 'Độ tuổi phù hợp: Phù hợp với mọi lứa tuổi và giới tính, dễ mang, dễ mặc, và dễ phối đồ, có thể kết hợp với sơ mi, áo thun, polo... đều được.'; 'Mẫu quần basic, dễ dàng\xa0 kết hợp cho nhiều outfit. Pant233 Monata Bluelight phù hợp cho những bạn muốn tìm đến sự đơn giản và tinh tế ở một mẫu quần dáng suông, rộng vừa. Đa năng, với nhiều cách phối và nhiều màu sắc để lựa chọn.'; 'Sử dụng loại vải kaki mềm, độ co dãn thấp, vì thế khi mang lên, chiếc quần sẽ tạo được một phom dáng cứng cáp, mạnh mẽ hơn.'; ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sản phẩm được thiết kế đặc biệt với chất kate Nhật dày dặn, thoáng, ít nhăn (Khi giặt xong không cần ủi). Sơ mi MBL có dáng oversize, tay dài, kết hợp cổ áo sơ mi basic được ép nhiệt, chắc chắn, cứng và giữ được form sau nhiều lần giặt. Có thể kết hợp cho nhiều outfit đi chơi hay những dịp cần sự nghiêm túc. Điểm nhấn của mẫu áo là chi tiết logo được thêu chắc chắn ở phần túi áo. Đem đến sự lịch sự, kèm theo chút cá tính cho người mặc.'; ''; ''</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3191,9 +3449,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3225,25 +3480,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3602,75 +3856,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="I65" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="76" style="12" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="19.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" style="11" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>187</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -3682,34 +3936,34 @@
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="21" t="s">
         <v>718</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3721,34 +3975,34 @@
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="21" t="s">
         <v>719</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -3760,34 +4014,34 @@
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="21" t="s">
         <v>720</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -3799,34 +4053,34 @@
       <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="21" t="s">
         <v>721</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -3838,34 +4092,34 @@
       <c r="G6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="19" t="s">
+        <v>824</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="21" t="s">
         <v>722</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3877,34 +4131,34 @@
       <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="21" t="s">
         <v>723</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -3916,34 +4170,34 @@
       <c r="G8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="21" t="s">
         <v>724</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -3955,34 +4209,34 @@
       <c r="G9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="21" t="s">
         <v>725</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -3994,34 +4248,34 @@
       <c r="G10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="21" t="s">
         <v>726</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -4033,34 +4287,34 @@
       <c r="G11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="21" t="s">
         <v>727</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -4072,34 +4326,34 @@
       <c r="G12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="21" t="s">
         <v>728</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -4111,34 +4365,34 @@
       <c r="G13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="21" t="s">
         <v>729</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -4150,34 +4404,34 @@
       <c r="G14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="21" t="s">
         <v>730</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -4189,34 +4443,34 @@
       <c r="G15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="21" t="s">
         <v>731</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -4228,36 +4482,36 @@
       <c r="G16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="21" t="s">
         <v>732</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4269,36 +4523,36 @@
       <c r="G17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="21" t="s">
         <v>733</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -4310,36 +4564,36 @@
       <c r="G18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="I18" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="21" t="s">
         <v>734</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -4351,36 +4605,36 @@
       <c r="G19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="21" t="s">
         <v>735</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -4392,36 +4646,36 @@
       <c r="G20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="I20" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="21" t="s">
         <v>736</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -4433,36 +4687,36 @@
       <c r="G21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="I21" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="21" t="s">
         <v>737</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -4474,36 +4728,36 @@
       <c r="G22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="I22" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="21" t="s">
         <v>738</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -4515,36 +4769,36 @@
       <c r="G23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="I23" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="21" t="s">
         <v>739</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -4556,34 +4810,34 @@
       <c r="G24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="I24" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="21" t="s">
         <v>740</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -4595,34 +4849,34 @@
       <c r="G25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="J25" s="9" t="s">
+      <c r="I25" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="21" t="s">
         <v>741</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -4634,36 +4888,36 @@
       <c r="G26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="J26" s="9" t="s">
+      <c r="I26" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="21" t="s">
         <v>742</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -4675,36 +4929,36 @@
       <c r="G27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="I27" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="21" t="s">
         <v>743</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -4716,36 +4970,36 @@
       <c r="G28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="I28" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="21" t="s">
         <v>744</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -4757,36 +5011,36 @@
       <c r="G29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="J29" s="9" t="s">
+      <c r="I29" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="21" t="s">
         <v>745</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -4798,36 +5052,36 @@
       <c r="G30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="I30" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="21" t="s">
         <v>746</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -4839,36 +5093,36 @@
       <c r="G31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="J31" s="9" t="s">
+      <c r="I31" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="21" t="s">
         <v>747</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -4880,36 +5134,36 @@
       <c r="G32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="I32" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="21" t="s">
         <v>748</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -4921,36 +5175,36 @@
       <c r="G33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="I33" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="21" t="s">
         <v>749</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -4962,36 +5216,36 @@
       <c r="G34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="I34" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="21" t="s">
         <v>750</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -5003,36 +5257,36 @@
       <c r="G35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="21" t="s">
         <v>751</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -5044,36 +5298,36 @@
       <c r="G36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="J36" s="9" t="s">
+      <c r="I36" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="21" t="s">
         <v>752</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -5085,36 +5339,36 @@
       <c r="G37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="J37" s="9" t="s">
+      <c r="I37" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="21" t="s">
         <v>753</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -5126,34 +5380,34 @@
       <c r="G38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="J38" s="9" t="s">
+      <c r="I38" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="21" t="s">
         <v>754</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -5165,36 +5419,36 @@
       <c r="G39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="J39" s="9" t="s">
+      <c r="I39" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="21" t="s">
         <v>755</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -5206,36 +5460,36 @@
       <c r="G40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="J40" s="9" t="s">
+      <c r="I40" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="21" t="s">
         <v>756</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -5247,36 +5501,36 @@
       <c r="G41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="J41" s="9" t="s">
+      <c r="I41" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="21" t="s">
         <v>757</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="259.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -5288,36 +5542,36 @@
       <c r="G42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="J42" s="9" t="s">
+      <c r="I42" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="21" t="s">
         <v>758</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -5329,36 +5583,36 @@
       <c r="G43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="J43" s="9" t="s">
+      <c r="I43" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="21" t="s">
         <v>759</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -5370,36 +5624,36 @@
       <c r="G44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="J44" s="9" t="s">
+      <c r="I44" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="L44" s="19" t="s">
+      <c r="L44" s="21" t="s">
         <v>760</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -5411,36 +5665,36 @@
       <c r="G45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="J45" s="9" t="s">
+      <c r="I45" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="L45" s="19" t="s">
+      <c r="L45" s="21" t="s">
         <v>761</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -5452,36 +5706,36 @@
       <c r="G46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="J46" s="9" t="s">
+      <c r="I46" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="L46" s="19" t="s">
+      <c r="L46" s="21" t="s">
         <v>762</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -5493,36 +5747,36 @@
       <c r="G47" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="J47" s="9" t="s">
+      <c r="I47" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="L47" s="19" t="s">
+      <c r="L47" s="21" t="s">
         <v>763</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -5534,36 +5788,36 @@
       <c r="G48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="J48" s="9" t="s">
+      <c r="I48" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="K48" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="L48" s="19" t="s">
+      <c r="L48" s="21" t="s">
         <v>764</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -5575,34 +5829,34 @@
       <c r="G49" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="J49" s="9" t="s">
+      <c r="I49" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="L49" s="19" t="s">
+      <c r="L49" s="21" t="s">
         <v>765</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -5614,36 +5868,36 @@
       <c r="G50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="J50" s="9" t="s">
+      <c r="I50" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="L50" s="19" t="s">
+      <c r="L50" s="21" t="s">
         <v>766</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -5655,36 +5909,36 @@
       <c r="G51" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="J51" s="9" t="s">
+      <c r="I51" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="21" t="s">
         <v>767</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -5696,34 +5950,34 @@
       <c r="G52" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="J52" s="9" t="s">
+      <c r="I52" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="21" t="s">
         <v>768</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -5735,36 +5989,36 @@
       <c r="G53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="J53" s="9" t="s">
+      <c r="I53" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="K53" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="L53" s="19" t="s">
+      <c r="L53" s="21" t="s">
         <v>769</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -5776,36 +6030,36 @@
       <c r="G54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="J54" s="9" t="s">
+      <c r="I54" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="K54" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="L54" s="19" t="s">
+      <c r="L54" s="21" t="s">
         <v>770</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -5817,36 +6071,36 @@
       <c r="G55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="J55" s="9" t="s">
+      <c r="I55" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="K55" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="L55" s="19" t="s">
+      <c r="L55" s="21" t="s">
         <v>771</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -5858,36 +6112,36 @@
       <c r="G56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="J56" s="9" t="s">
+      <c r="I56" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="L56" s="19" t="s">
+      <c r="L56" s="21" t="s">
         <v>772</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -5899,36 +6153,36 @@
       <c r="G57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="J57" s="9" t="s">
+      <c r="I57" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="K57" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="21" t="s">
         <v>773</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -5940,36 +6194,36 @@
       <c r="G58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="J58" s="9" t="s">
+      <c r="I58" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="K58" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="L58" s="19" t="s">
+      <c r="L58" s="21" t="s">
         <v>774</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="216" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -5981,36 +6235,36 @@
       <c r="G59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="J59" s="9" t="s">
+      <c r="I59" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="L59" s="19" t="s">
+      <c r="L59" s="21" t="s">
         <v>775</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -6022,36 +6276,36 @@
       <c r="G60" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="J60" s="9" t="s">
+      <c r="I60" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="K60" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="L60" s="19" t="s">
+      <c r="L60" s="21" t="s">
         <v>776</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -6063,36 +6317,36 @@
       <c r="G61" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="J61" s="9" t="s">
+      <c r="I61" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="K61" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="L61" s="19" t="s">
+      <c r="L61" s="21" t="s">
         <v>777</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -6104,36 +6358,36 @@
       <c r="G62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="J62" s="9" t="s">
+      <c r="I62" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="K62" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="21" t="s">
         <v>778</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -6145,36 +6399,36 @@
       <c r="G63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="J63" s="9" t="s">
+      <c r="I63" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="21" t="s">
         <v>779</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -6186,36 +6440,36 @@
       <c r="G64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="J64" s="9" t="s">
+      <c r="I64" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="K64" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="L64" s="19" t="s">
+      <c r="L64" s="21" t="s">
         <v>780</v>
       </c>
       <c r="M64" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -6227,36 +6481,36 @@
       <c r="G65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="J65" s="9" t="s">
+      <c r="I65" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K65" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="L65" s="19" t="s">
+      <c r="L65" s="21" t="s">
         <v>781</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>196</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -6268,34 +6522,34 @@
       <c r="G66" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="J66" s="9" t="s">
+      <c r="I66" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="L66" s="19" t="s">
+      <c r="L66" s="21" t="s">
         <v>782</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18" t="s">
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -6307,36 +6561,36 @@
       <c r="G67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="J67" s="9" t="s">
+      <c r="I67" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="K67" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="21" t="s">
         <v>783</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -6348,36 +6602,36 @@
       <c r="G68" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="K68" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="L68" s="19" t="s">
+      <c r="L68" s="21" t="s">
         <v>784</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -6389,36 +6643,36 @@
       <c r="G69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="J69" s="9" t="s">
+      <c r="I69" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="K69" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="L69" s="19" t="s">
+      <c r="L69" s="21" t="s">
         <v>785</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -6430,36 +6684,36 @@
       <c r="G70" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="J70" s="9" t="s">
+      <c r="I70" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="K70" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="L70" s="19" t="s">
+      <c r="L70" s="21" t="s">
         <v>786</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -6471,36 +6725,36 @@
       <c r="G71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="J71" s="9" t="s">
+      <c r="I71" s="19" t="s">
+        <v>881</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="L71" s="19" t="s">
+      <c r="L71" s="21" t="s">
         <v>787</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -6512,36 +6766,36 @@
       <c r="G72" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="J72" s="9" t="s">
+      <c r="I72" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="K72" s="9" t="s">
+      <c r="K72" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="L72" s="19" t="s">
+      <c r="L72" s="21" t="s">
         <v>788</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -6553,36 +6807,36 @@
       <c r="G73" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="J73" s="9" t="s">
+      <c r="I73" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="K73" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="L73" s="19" t="s">
+      <c r="L73" s="21" t="s">
         <v>789</v>
       </c>
       <c r="M73" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -6594,36 +6848,36 @@
       <c r="G74" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="J74" s="9" t="s">
+      <c r="I74" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="K74" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="L74" s="19" t="s">
+      <c r="L74" s="21" t="s">
         <v>790</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -6635,36 +6889,36 @@
       <c r="G75" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="J75" s="9" t="s">
+      <c r="I75" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K75" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="L75" s="19" t="s">
+      <c r="L75" s="21" t="s">
         <v>791</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -6676,36 +6930,36 @@
       <c r="G76" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="J76" s="9" t="s">
+      <c r="I76" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="L76" s="19" t="s">
+      <c r="L76" s="21" t="s">
         <v>792</v>
       </c>
       <c r="M76" s="7" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -6717,36 +6971,36 @@
       <c r="G77" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="J77" s="9" t="s">
+      <c r="I77" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="J77" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="K77" s="9" t="s">
+      <c r="K77" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="L77" s="19" t="s">
+      <c r="L77" s="21" t="s">
         <v>793</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -6758,36 +7012,36 @@
       <c r="G78" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="J78" s="9" t="s">
+      <c r="I78" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="J78" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="K78" s="9" t="s">
+      <c r="K78" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="L78" s="19" t="s">
+      <c r="L78" s="21" t="s">
         <v>794</v>
       </c>
       <c r="M78" s="7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="244.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -6799,36 +7053,36 @@
       <c r="G79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="J79" s="9" t="s">
+      <c r="I79" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="K79" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="L79" s="19" t="s">
+      <c r="L79" s="21" t="s">
         <v>795</v>
       </c>
       <c r="M79" s="7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -6840,36 +7094,36 @@
       <c r="G80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I80" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="J80" s="9" t="s">
+      <c r="I80" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="K80" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="L80" s="19" t="s">
+      <c r="L80" s="21" t="s">
         <v>796</v>
       </c>
       <c r="M80" s="7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -6881,36 +7135,36 @@
       <c r="G81" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="J81" s="9" t="s">
+      <c r="I81" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="K81" s="9" t="s">
+      <c r="K81" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="L81" s="19" t="s">
+      <c r="L81" s="21" t="s">
         <v>797</v>
       </c>
       <c r="M81" s="7" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -6922,36 +7176,36 @@
       <c r="G82" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I82" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="J82" s="9" t="s">
+      <c r="I82" s="19" t="s">
+        <v>888</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="K82" s="9" t="s">
+      <c r="K82" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L82" s="19" t="s">
+      <c r="L82" s="21" t="s">
         <v>798</v>
       </c>
       <c r="M82" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -6963,36 +7217,36 @@
       <c r="G83" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="J83" s="9" t="s">
+      <c r="I83" s="19" t="s">
+        <v>889</v>
+      </c>
+      <c r="J83" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="K83" s="9" t="s">
+      <c r="K83" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="L83" s="19" t="s">
+      <c r="L83" s="21" t="s">
         <v>799</v>
       </c>
       <c r="M83" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -7004,36 +7258,36 @@
       <c r="G84" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="J84" s="9" t="s">
+      <c r="I84" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="K84" s="9" t="s">
+      <c r="K84" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="L84" s="19" t="s">
+      <c r="L84" s="21" t="s">
         <v>800</v>
       </c>
       <c r="M84" s="7" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="388.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -7045,36 +7299,36 @@
       <c r="G85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="J85" s="9" t="s">
+      <c r="I85" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="J85" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="K85" s="9" t="s">
+      <c r="K85" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="L85" s="19" t="s">
+      <c r="L85" s="21" t="s">
         <v>801</v>
       </c>
       <c r="M85" s="7" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -7086,36 +7340,36 @@
       <c r="G86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I86" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="J86" s="9" t="s">
+      <c r="I86" s="19" t="s">
+        <v>892</v>
+      </c>
+      <c r="J86" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="K86" s="9" t="s">
+      <c r="K86" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="L86" s="19" t="s">
+      <c r="L86" s="21" t="s">
         <v>802</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -7127,36 +7381,36 @@
       <c r="G87" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="J87" s="9" t="s">
+      <c r="I87" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="J87" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="K87" s="9" t="s">
+      <c r="K87" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="L87" s="19" t="s">
+      <c r="L87" s="21" t="s">
         <v>803</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -7168,34 +7422,34 @@
       <c r="G88" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="J88" s="9" t="s">
+      <c r="I88" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="J88" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="K88" s="9" t="s">
+      <c r="K88" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L88" s="19" t="s">
+      <c r="L88" s="21" t="s">
         <v>804</v>
       </c>
       <c r="M88" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18" t="s">
+      <c r="C89" s="17"/>
+      <c r="D89" s="17" t="s">
         <v>195</v>
       </c>
       <c r="E89" s="7" t="s">
@@ -7207,36 +7461,36 @@
       <c r="G89" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="J89" s="9" t="s">
+      <c r="I89" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="J89" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="K89" s="9" t="s">
+      <c r="K89" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="L89" s="19" t="s">
+      <c r="L89" s="21" t="s">
         <v>805</v>
       </c>
       <c r="M89" s="7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -7248,34 +7502,34 @@
       <c r="G90" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I90" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="J90" s="9" t="s">
+      <c r="I90" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="J90" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="K90" s="9" t="s">
+      <c r="K90" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="L90" s="19" t="s">
+      <c r="L90" s="21" t="s">
         <v>806</v>
       </c>
       <c r="M90" s="7" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18" t="s">
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -7287,36 +7541,36 @@
       <c r="G91" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I91" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="J91" s="9" t="s">
+      <c r="I91" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="J91" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="K91" s="9" t="s">
+      <c r="K91" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="L91" s="19" t="s">
+      <c r="L91" s="21" t="s">
         <v>807</v>
       </c>
       <c r="M91" s="7" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -7328,36 +7582,36 @@
       <c r="G92" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="J92" s="9" t="s">
+      <c r="I92" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="J92" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="K92" s="9" t="s">
+      <c r="K92" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="L92" s="19" t="s">
+      <c r="L92" s="21" t="s">
         <v>808</v>
       </c>
       <c r="M92" s="7" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="244.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -7369,36 +7623,36 @@
       <c r="G93" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I93" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="J93" s="9" t="s">
+      <c r="I93" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="J93" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="K93" s="9" t="s">
+      <c r="K93" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="L93" s="19" t="s">
+      <c r="L93" s="21" t="s">
         <v>809</v>
       </c>
       <c r="M93" s="7" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -7410,19 +7664,19 @@
       <c r="G94" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="J94" s="9" t="s">
+      <c r="I94" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="J94" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="K94" s="9" t="s">
+      <c r="K94" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="L94" s="19" t="s">
+      <c r="L94" s="21" t="s">
         <v>625</v>
       </c>
       <c r="M94" s="7" t="s">
@@ -7431,13 +7685,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L94 L107:L1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7615,56 +7869,56 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="76" style="12" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="48.44140625" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="19.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="76" style="11" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="48.44140625" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>187</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -7678,7 +7932,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -7702,7 +7956,7 @@
       <c r="K2" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7713,7 +7967,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -7737,7 +7991,7 @@
       <c r="K3" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7748,7 +8002,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -7772,7 +8026,7 @@
       <c r="K4" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7783,7 +8037,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -7807,7 +8061,7 @@
       <c r="K5" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7818,7 +8072,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -7842,7 +8096,7 @@
       <c r="K6" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7853,7 +8107,7 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -7877,7 +8131,7 @@
       <c r="K7" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7888,7 +8142,7 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -7912,7 +8166,7 @@
       <c r="K8" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7923,7 +8177,7 @@
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -7947,7 +8201,7 @@
       <c r="K9" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7958,7 +8212,7 @@
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -7982,7 +8236,7 @@
       <c r="K10" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7993,7 +8247,7 @@
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -8017,7 +8271,7 @@
       <c r="K11" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8028,7 +8282,7 @@
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -8052,7 +8306,7 @@
       <c r="K12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8063,7 +8317,7 @@
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -8087,7 +8341,7 @@
       <c r="K13" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8098,7 +8352,7 @@
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -8122,7 +8376,7 @@
       <c r="K14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8133,7 +8387,7 @@
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -8157,7 +8411,7 @@
       <c r="K15" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>593</v>
       </c>
     </row>
@@ -8168,7 +8422,7 @@
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -8192,7 +8446,7 @@
       <c r="K16" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="11" t="s">
         <v>593</v>
       </c>
     </row>
@@ -8203,10 +8457,10 @@
       <c r="B17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -8230,7 +8484,7 @@
       <c r="K17" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8241,10 +8495,10 @@
       <c r="B18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -8268,7 +8522,7 @@
       <c r="K18" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8279,10 +8533,10 @@
       <c r="B19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -8306,7 +8560,7 @@
       <c r="K19" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8317,10 +8571,10 @@
       <c r="B20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -8344,7 +8598,7 @@
       <c r="K20" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8355,10 +8609,10 @@
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -8382,7 +8636,7 @@
       <c r="K21" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8393,10 +8647,10 @@
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -8420,7 +8674,7 @@
       <c r="K22" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8431,10 +8685,10 @@
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -8458,7 +8712,7 @@
       <c r="K23" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="11" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8469,10 +8723,10 @@
       <c r="B24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -8496,7 +8750,7 @@
       <c r="K24" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="11" t="s">
         <v>596</v>
       </c>
     </row>
@@ -8507,7 +8761,7 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -8531,7 +8785,7 @@
       <c r="K25" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="11" t="s">
         <v>597</v>
       </c>
     </row>
@@ -8542,7 +8796,7 @@
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -8566,7 +8820,7 @@
       <c r="K26" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8577,10 +8831,10 @@
       <c r="B27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -8604,7 +8858,7 @@
       <c r="K27" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8615,10 +8869,10 @@
       <c r="B28" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8642,7 +8896,7 @@
       <c r="K28" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8653,10 +8907,10 @@
       <c r="B29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -8680,7 +8934,7 @@
       <c r="K29" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8691,10 +8945,10 @@
       <c r="B30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8718,7 +8972,7 @@
       <c r="K30" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8729,10 +8983,10 @@
       <c r="B31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -8756,7 +9010,7 @@
       <c r="K31" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8767,10 +9021,10 @@
       <c r="B32" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -8794,7 +9048,7 @@
       <c r="K32" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8805,10 +9059,10 @@
       <c r="B33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8832,7 +9086,7 @@
       <c r="K33" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8843,10 +9097,10 @@
       <c r="B34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -8870,7 +9124,7 @@
       <c r="K34" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="11" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8881,10 +9135,10 @@
       <c r="B35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -8908,7 +9162,7 @@
       <c r="K35" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8919,10 +9173,10 @@
       <c r="B36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -8946,7 +9200,7 @@
       <c r="K36" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8957,10 +9211,10 @@
       <c r="B37" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -8984,7 +9238,7 @@
       <c r="K37" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8995,10 +9249,10 @@
       <c r="B38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -9022,7 +9276,7 @@
       <c r="K38" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9033,7 +9287,7 @@
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -9057,7 +9311,7 @@
       <c r="K39" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9068,10 +9322,10 @@
       <c r="B40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -9095,7 +9349,7 @@
       <c r="K40" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="11" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9106,10 +9360,10 @@
       <c r="B41" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -9133,7 +9387,7 @@
       <c r="K41" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="11" t="s">
         <v>602</v>
       </c>
     </row>
@@ -9144,10 +9398,10 @@
       <c r="B42" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -9171,7 +9425,7 @@
       <c r="K42" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9182,10 +9436,10 @@
       <c r="B43" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -9209,7 +9463,7 @@
       <c r="K43" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9220,10 +9474,10 @@
       <c r="B44" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -9247,7 +9501,7 @@
       <c r="K44" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9258,10 +9512,10 @@
       <c r="B45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -9285,7 +9539,7 @@
       <c r="K45" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9296,10 +9550,10 @@
       <c r="B46" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -9323,7 +9577,7 @@
       <c r="K46" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="11" t="s">
         <v>603</v>
       </c>
     </row>
@@ -9334,10 +9588,10 @@
       <c r="B47" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -9361,7 +9615,7 @@
       <c r="K47" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9372,10 +9626,10 @@
       <c r="B48" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -9399,7 +9653,7 @@
       <c r="K48" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9410,10 +9664,10 @@
       <c r="B49" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -9437,7 +9691,7 @@
       <c r="K49" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="L49" s="11" t="s">
         <v>604</v>
       </c>
     </row>
@@ -9448,7 +9702,7 @@
       <c r="B50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -9472,7 +9726,7 @@
       <c r="K50" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9483,10 +9737,10 @@
       <c r="B51" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -9510,7 +9764,7 @@
       <c r="K51" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L51" s="11" t="s">
         <v>605</v>
       </c>
     </row>
@@ -9521,10 +9775,10 @@
       <c r="B52" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -9548,7 +9802,7 @@
       <c r="K52" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="L52" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9559,7 +9813,7 @@
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -9583,7 +9837,7 @@
       <c r="K53" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="L53" s="12" t="s">
+      <c r="L53" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9594,10 +9848,10 @@
       <c r="B54" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -9621,7 +9875,7 @@
       <c r="K54" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="L54" s="12" t="s">
+      <c r="L54" s="11" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9632,10 +9886,10 @@
       <c r="B55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -9659,7 +9913,7 @@
       <c r="K55" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L55" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9670,10 +9924,10 @@
       <c r="B56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -9697,7 +9951,7 @@
       <c r="K56" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="L56" s="12" t="s">
+      <c r="L56" s="11" t="s">
         <v>607</v>
       </c>
     </row>
@@ -9708,10 +9962,10 @@
       <c r="B57" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -9735,7 +9989,7 @@
       <c r="K57" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="L57" s="12" t="s">
+      <c r="L57" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9746,10 +10000,10 @@
       <c r="B58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -9773,7 +10027,7 @@
       <c r="K58" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="L58" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9784,10 +10038,10 @@
       <c r="B59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9811,7 +10065,7 @@
       <c r="K59" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="L59" s="12" t="s">
+      <c r="L59" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9822,10 +10076,10 @@
       <c r="B60" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -9849,7 +10103,7 @@
       <c r="K60" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="L60" s="12" t="s">
+      <c r="L60" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9860,10 +10114,10 @@
       <c r="B61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9887,7 +10141,7 @@
       <c r="K61" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="L61" s="12" t="s">
+      <c r="L61" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9898,10 +10152,10 @@
       <c r="B62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -9925,7 +10179,7 @@
       <c r="K62" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="L62" s="12" t="s">
+      <c r="L62" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9936,10 +10190,10 @@
       <c r="B63" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -9963,7 +10217,7 @@
       <c r="K63" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="L63" s="12" t="s">
+      <c r="L63" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9974,10 +10228,10 @@
       <c r="B64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -10001,7 +10255,7 @@
       <c r="K64" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="L64" s="12" t="s">
+      <c r="L64" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10012,10 +10266,10 @@
       <c r="B65" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -10039,7 +10293,7 @@
       <c r="K65" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="L65" s="12" t="s">
+      <c r="L65" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10050,10 +10304,10 @@
       <c r="B66" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -10077,7 +10331,7 @@
       <c r="K66" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="L66" s="12" t="s">
+      <c r="L66" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10088,7 +10342,7 @@
       <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -10112,7 +10366,7 @@
       <c r="K67" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="L67" s="11" t="s">
         <v>609</v>
       </c>
     </row>
@@ -10123,10 +10377,10 @@
       <c r="B68" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10150,7 +10404,7 @@
       <c r="K68" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="L68" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10161,10 +10415,10 @@
       <c r="B69" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -10188,7 +10442,7 @@
       <c r="K69" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="L69" s="12" t="s">
+      <c r="L69" s="11" t="s">
         <v>610</v>
       </c>
     </row>
@@ -10199,10 +10453,10 @@
       <c r="B70" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10226,7 +10480,7 @@
       <c r="K70" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="L70" s="12" t="s">
+      <c r="L70" s="11" t="s">
         <v>611</v>
       </c>
     </row>
@@ -10237,10 +10491,10 @@
       <c r="B71" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -10264,7 +10518,7 @@
       <c r="K71" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="L71" s="12" t="s">
+      <c r="L71" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10275,10 +10529,10 @@
       <c r="B72" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -10302,7 +10556,7 @@
       <c r="K72" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="L72" s="12" t="s">
+      <c r="L72" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10313,10 +10567,10 @@
       <c r="B73" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -10340,7 +10594,7 @@
       <c r="K73" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="L73" s="12" t="s">
+      <c r="L73" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -10351,10 +10605,10 @@
       <c r="B74" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -10378,7 +10632,7 @@
       <c r="K74" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L74" s="12" t="s">
+      <c r="L74" s="11" t="s">
         <v>612</v>
       </c>
     </row>
@@ -10389,10 +10643,10 @@
       <c r="B75" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -10416,7 +10670,7 @@
       <c r="K75" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="L75" s="12" t="s">
+      <c r="L75" s="11" t="s">
         <v>613</v>
       </c>
     </row>
@@ -10427,10 +10681,10 @@
       <c r="B76" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -10454,7 +10708,7 @@
       <c r="K76" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L76" s="11" t="s">
         <v>614</v>
       </c>
     </row>
@@ -10465,10 +10719,10 @@
       <c r="B77" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -10492,7 +10746,7 @@
       <c r="K77" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="L77" s="12" t="s">
+      <c r="L77" s="11" t="s">
         <v>614</v>
       </c>
     </row>
@@ -10503,10 +10757,10 @@
       <c r="B78" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -10530,7 +10784,7 @@
       <c r="K78" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L78" s="12" t="s">
+      <c r="L78" s="11" t="s">
         <v>615</v>
       </c>
     </row>
@@ -10541,10 +10795,10 @@
       <c r="B79" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -10568,7 +10822,7 @@
       <c r="K79" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="L79" s="12" t="s">
+      <c r="L79" s="11" t="s">
         <v>616</v>
       </c>
     </row>
@@ -10579,10 +10833,10 @@
       <c r="B80" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -10606,7 +10860,7 @@
       <c r="K80" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="L80" s="12" t="s">
+      <c r="L80" s="11" t="s">
         <v>616</v>
       </c>
     </row>
@@ -10617,10 +10871,10 @@
       <c r="B81" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -10644,7 +10898,7 @@
       <c r="K81" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="L81" s="12" t="s">
+      <c r="L81" s="11" t="s">
         <v>617</v>
       </c>
     </row>
@@ -10655,10 +10909,10 @@
       <c r="B82" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -10682,7 +10936,7 @@
       <c r="K82" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="L82" s="12" t="s">
+      <c r="L82" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10693,10 +10947,10 @@
       <c r="B83" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -10720,7 +10974,7 @@
       <c r="K83" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="L83" s="12" t="s">
+      <c r="L83" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10731,10 +10985,10 @@
       <c r="B84" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -10758,7 +11012,7 @@
       <c r="K84" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="L84" s="12" t="s">
+      <c r="L84" s="11" t="s">
         <v>618</v>
       </c>
     </row>
@@ -10769,10 +11023,10 @@
       <c r="B85" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -10796,7 +11050,7 @@
       <c r="K85" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="L85" s="12" t="s">
+      <c r="L85" s="11" t="s">
         <v>619</v>
       </c>
     </row>
@@ -10807,10 +11061,10 @@
       <c r="B86" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -10834,7 +11088,7 @@
       <c r="K86" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="L86" s="12" t="s">
+      <c r="L86" s="11" t="s">
         <v>620</v>
       </c>
     </row>
@@ -10845,10 +11099,10 @@
       <c r="B87" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -10872,7 +11126,7 @@
       <c r="K87" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="L87" s="12" t="s">
+      <c r="L87" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10883,10 +11137,10 @@
       <c r="B88" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -10910,7 +11164,7 @@
       <c r="K88" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="L88" s="12" t="s">
+      <c r="L88" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10921,7 +11175,7 @@
       <c r="B89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -10945,7 +11199,7 @@
       <c r="K89" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="L89" s="12" t="s">
+      <c r="L89" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10956,10 +11210,10 @@
       <c r="B90" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -10983,7 +11237,7 @@
       <c r="K90" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="L90" s="12" t="s">
+      <c r="L90" s="11" t="s">
         <v>621</v>
       </c>
     </row>
@@ -10994,7 +11248,7 @@
       <c r="B91" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -11018,7 +11272,7 @@
       <c r="K91" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="L91" s="12" t="s">
+      <c r="L91" s="11" t="s">
         <v>622</v>
       </c>
     </row>
@@ -11029,10 +11283,10 @@
       <c r="B92" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -11056,7 +11310,7 @@
       <c r="K92" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="L92" s="12" t="s">
+      <c r="L92" s="11" t="s">
         <v>623</v>
       </c>
     </row>
@@ -11067,10 +11321,10 @@
       <c r="B93" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -11094,7 +11348,7 @@
       <c r="K93" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="L93" s="12" t="s">
+      <c r="L93" s="11" t="s">
         <v>624</v>
       </c>
     </row>
@@ -11105,10 +11359,10 @@
       <c r="B94" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -11132,16 +11386,16 @@
       <c r="K94" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="L94" s="12" t="s">
+      <c r="L94" s="11" t="s">
         <v>598</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11151,57 +11405,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="76" style="12" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="144.33203125" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="19.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="76" style="11" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="144.33203125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>187</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -11215,7 +11469,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -11236,10 +11490,10 @@
       <c r="J2" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11250,7 +11504,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -11271,10 +11525,10 @@
       <c r="J3" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11285,7 +11539,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -11306,10 +11560,10 @@
       <c r="J4" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11320,7 +11574,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -11341,10 +11595,10 @@
       <c r="J5" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11355,7 +11609,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -11376,10 +11630,10 @@
       <c r="J6" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11390,7 +11644,7 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -11411,10 +11665,10 @@
       <c r="J7" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11425,7 +11679,7 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -11446,10 +11700,10 @@
       <c r="J8" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11460,7 +11714,7 @@
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -11481,10 +11735,10 @@
       <c r="J9" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11495,7 +11749,7 @@
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -11516,10 +11770,10 @@
       <c r="J10" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11530,7 +11784,7 @@
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -11551,10 +11805,10 @@
       <c r="J11" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11565,7 +11819,7 @@
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -11586,10 +11840,10 @@
       <c r="J12" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11600,7 +11854,7 @@
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -11621,10 +11875,10 @@
       <c r="J13" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11635,7 +11889,7 @@
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -11656,10 +11910,10 @@
       <c r="J14" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -11670,7 +11924,7 @@
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -11691,10 +11945,10 @@
       <c r="J15" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>593</v>
       </c>
     </row>
@@ -11705,7 +11959,7 @@
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -11726,10 +11980,10 @@
       <c r="J16" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="11" t="s">
         <v>593</v>
       </c>
     </row>
@@ -11740,10 +11994,10 @@
       <c r="B17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -11764,10 +12018,10 @@
       <c r="J17" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11778,10 +12032,10 @@
       <c r="B18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -11802,10 +12056,10 @@
       <c r="J18" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -11816,10 +12070,10 @@
       <c r="B19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -11840,10 +12094,10 @@
       <c r="J19" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -11854,10 +12108,10 @@
       <c r="B20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -11878,10 +12132,10 @@
       <c r="J20" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -11892,10 +12146,10 @@
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -11916,10 +12170,10 @@
       <c r="J21" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -11930,10 +12184,10 @@
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -11954,10 +12208,10 @@
       <c r="J22" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -11968,10 +12222,10 @@
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -11992,10 +12246,10 @@
       <c r="J23" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="11" t="s">
         <v>595</v>
       </c>
     </row>
@@ -12006,10 +12260,10 @@
       <c r="B24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -12030,10 +12284,10 @@
       <c r="J24" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="11" t="s">
         <v>596</v>
       </c>
     </row>
@@ -12044,7 +12298,7 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -12065,10 +12319,10 @@
       <c r="J25" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="11" t="s">
         <v>597</v>
       </c>
     </row>
@@ -12079,7 +12333,7 @@
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -12100,10 +12354,10 @@
       <c r="J26" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -12114,10 +12368,10 @@
       <c r="B27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -12138,10 +12392,10 @@
       <c r="J27" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12152,10 +12406,10 @@
       <c r="B28" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -12176,10 +12430,10 @@
       <c r="J28" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12190,10 +12444,10 @@
       <c r="B29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -12214,10 +12468,10 @@
       <c r="J29" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12228,10 +12482,10 @@
       <c r="B30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -12252,10 +12506,10 @@
       <c r="J30" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12266,10 +12520,10 @@
       <c r="B31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -12290,10 +12544,10 @@
       <c r="J31" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12304,10 +12558,10 @@
       <c r="B32" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -12328,10 +12582,10 @@
       <c r="J32" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12342,10 +12596,10 @@
       <c r="B33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -12366,10 +12620,10 @@
       <c r="J33" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -12380,10 +12634,10 @@
       <c r="B34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -12404,10 +12658,10 @@
       <c r="J34" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="11" t="s">
         <v>600</v>
       </c>
     </row>
@@ -12418,10 +12672,10 @@
       <c r="B35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -12442,10 +12696,10 @@
       <c r="J35" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -12456,10 +12710,10 @@
       <c r="B36" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -12480,10 +12734,10 @@
       <c r="J36" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -12494,10 +12748,10 @@
       <c r="B37" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -12518,10 +12772,10 @@
       <c r="J37" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12532,10 +12786,10 @@
       <c r="B38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -12556,10 +12810,10 @@
       <c r="J38" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -12570,7 +12824,7 @@
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -12591,10 +12845,10 @@
       <c r="J39" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -12605,10 +12859,10 @@
       <c r="B40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -12629,10 +12883,10 @@
       <c r="J40" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="11" t="s">
         <v>601</v>
       </c>
     </row>
@@ -12643,10 +12897,10 @@
       <c r="B41" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -12667,10 +12921,10 @@
       <c r="J41" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="11" t="s">
         <v>602</v>
       </c>
     </row>
@@ -12681,10 +12935,10 @@
       <c r="B42" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -12705,10 +12959,10 @@
       <c r="J42" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -12719,10 +12973,10 @@
       <c r="B43" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -12743,10 +12997,10 @@
       <c r="J43" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -12757,10 +13011,10 @@
       <c r="B44" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -12781,10 +13035,10 @@
       <c r="J44" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -12795,10 +13049,10 @@
       <c r="B45" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -12819,10 +13073,10 @@
       <c r="J45" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -12833,10 +13087,10 @@
       <c r="B46" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -12857,10 +13111,10 @@
       <c r="J46" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="11" t="s">
         <v>603</v>
       </c>
     </row>
@@ -12871,10 +13125,10 @@
       <c r="B47" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -12895,10 +13149,10 @@
       <c r="J47" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -12909,10 +13163,10 @@
       <c r="B48" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -12933,10 +13187,10 @@
       <c r="J48" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -12947,10 +13201,10 @@
       <c r="B49" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -12971,10 +13225,10 @@
       <c r="J49" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="L49" s="11" t="s">
         <v>604</v>
       </c>
     </row>
@@ -12985,7 +13239,7 @@
       <c r="B50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -13006,10 +13260,10 @@
       <c r="J50" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -13020,10 +13274,10 @@
       <c r="B51" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -13044,10 +13298,10 @@
       <c r="J51" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L51" s="11" t="s">
         <v>605</v>
       </c>
     </row>
@@ -13058,10 +13312,10 @@
       <c r="B52" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -13082,10 +13336,10 @@
       <c r="J52" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="L52" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -13096,7 +13350,7 @@
       <c r="B53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -13117,10 +13371,10 @@
       <c r="J53" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="L53" s="12" t="s">
+      <c r="L53" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -13131,10 +13385,10 @@
       <c r="B54" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -13155,10 +13409,10 @@
       <c r="J54" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="L54" s="12" t="s">
+      <c r="L54" s="11" t="s">
         <v>606</v>
       </c>
     </row>
@@ -13169,10 +13423,10 @@
       <c r="B55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -13193,10 +13447,10 @@
       <c r="J55" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L55" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -13207,10 +13461,10 @@
       <c r="B56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -13231,10 +13485,10 @@
       <c r="J56" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="L56" s="12" t="s">
+      <c r="L56" s="11" t="s">
         <v>607</v>
       </c>
     </row>
@@ -13245,10 +13499,10 @@
       <c r="B57" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -13269,10 +13523,10 @@
       <c r="J57" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="L57" s="12" t="s">
+      <c r="L57" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -13283,10 +13537,10 @@
       <c r="B58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -13307,10 +13561,10 @@
       <c r="J58" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="L58" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -13321,10 +13575,10 @@
       <c r="B59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -13345,10 +13599,10 @@
       <c r="J59" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K59" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="L59" s="12" t="s">
+      <c r="L59" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -13359,10 +13613,10 @@
       <c r="B60" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -13383,10 +13637,10 @@
       <c r="J60" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="L60" s="12" t="s">
+      <c r="L60" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -13397,10 +13651,10 @@
       <c r="B61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -13421,10 +13675,10 @@
       <c r="J61" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K61" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="L61" s="12" t="s">
+      <c r="L61" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -13435,10 +13689,10 @@
       <c r="B62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -13459,10 +13713,10 @@
       <c r="J62" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K62" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="L62" s="12" t="s">
+      <c r="L62" s="11" t="s">
         <v>599</v>
       </c>
     </row>
@@ -13473,10 +13727,10 @@
       <c r="B63" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -13497,10 +13751,10 @@
       <c r="J63" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K63" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="L63" s="12" t="s">
+      <c r="L63" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -13511,10 +13765,10 @@
       <c r="B64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -13535,10 +13789,10 @@
       <c r="J64" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="K64" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="L64" s="12" t="s">
+      <c r="L64" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -13549,10 +13803,10 @@
       <c r="B65" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -13573,10 +13827,10 @@
       <c r="J65" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K65" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="L65" s="12" t="s">
+      <c r="L65" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -13587,10 +13841,10 @@
       <c r="B66" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -13611,10 +13865,10 @@
       <c r="J66" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="K66" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="L66" s="12" t="s">
+      <c r="L66" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -13625,7 +13879,7 @@
       <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -13646,10 +13900,10 @@
       <c r="J67" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="L67" s="12" t="s">
+      <c r="L67" s="11" t="s">
         <v>609</v>
       </c>
     </row>
@@ -13660,10 +13914,10 @@
       <c r="B68" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -13684,10 +13938,10 @@
       <c r="J68" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K68" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="L68" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -13698,10 +13952,10 @@
       <c r="B69" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -13722,10 +13976,10 @@
       <c r="J69" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="L69" s="12" t="s">
+      <c r="L69" s="11" t="s">
         <v>610</v>
       </c>
     </row>
@@ -13736,10 +13990,10 @@
       <c r="B70" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -13760,10 +14014,10 @@
       <c r="J70" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="K70" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="L70" s="12" t="s">
+      <c r="L70" s="11" t="s">
         <v>611</v>
       </c>
     </row>
@@ -13774,10 +14028,10 @@
       <c r="B71" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -13798,10 +14052,10 @@
       <c r="J71" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="L71" s="12" t="s">
+      <c r="L71" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -13812,10 +14066,10 @@
       <c r="B72" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -13836,10 +14090,10 @@
       <c r="J72" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="K72" s="16" t="s">
+      <c r="K72" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="L72" s="12" t="s">
+      <c r="L72" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -13850,10 +14104,10 @@
       <c r="B73" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -13874,10 +14128,10 @@
       <c r="J73" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="L73" s="12" t="s">
+      <c r="L73" s="11" t="s">
         <v>594</v>
       </c>
     </row>
@@ -13888,10 +14142,10 @@
       <c r="B74" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -13912,10 +14166,10 @@
       <c r="J74" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="K74" s="16" t="s">
+      <c r="K74" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="L74" s="12" t="s">
+      <c r="L74" s="11" t="s">
         <v>612</v>
       </c>
     </row>
@@ -13926,10 +14180,10 @@
       <c r="B75" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -13950,10 +14204,10 @@
       <c r="J75" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="K75" s="16" t="s">
+      <c r="K75" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="L75" s="12" t="s">
+      <c r="L75" s="11" t="s">
         <v>613</v>
       </c>
     </row>
@@ -13964,10 +14218,10 @@
       <c r="B76" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -13988,10 +14242,10 @@
       <c r="J76" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="K76" s="16" t="s">
+      <c r="K76" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="L76" s="12" t="s">
+      <c r="L76" s="11" t="s">
         <v>614</v>
       </c>
     </row>
@@ -14002,10 +14256,10 @@
       <c r="B77" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -14026,10 +14280,10 @@
       <c r="J77" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="K77" s="16" t="s">
+      <c r="K77" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="L77" s="12" t="s">
+      <c r="L77" s="11" t="s">
         <v>614</v>
       </c>
     </row>
@@ -14040,10 +14294,10 @@
       <c r="B78" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -14064,10 +14318,10 @@
       <c r="J78" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="K78" s="16" t="s">
+      <c r="K78" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="L78" s="12" t="s">
+      <c r="L78" s="11" t="s">
         <v>615</v>
       </c>
     </row>
@@ -14078,10 +14332,10 @@
       <c r="B79" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -14102,10 +14356,10 @@
       <c r="J79" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="K79" s="16" t="s">
+      <c r="K79" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="L79" s="12" t="s">
+      <c r="L79" s="11" t="s">
         <v>616</v>
       </c>
     </row>
@@ -14116,10 +14370,10 @@
       <c r="B80" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -14140,10 +14394,10 @@
       <c r="J80" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="K80" s="16" t="s">
+      <c r="K80" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="L80" s="12" t="s">
+      <c r="L80" s="11" t="s">
         <v>616</v>
       </c>
     </row>
@@ -14154,10 +14408,10 @@
       <c r="B81" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -14178,10 +14432,10 @@
       <c r="J81" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="L81" s="12" t="s">
+      <c r="L81" s="11" t="s">
         <v>617</v>
       </c>
     </row>
@@ -14192,10 +14446,10 @@
       <c r="B82" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -14216,10 +14470,10 @@
       <c r="J82" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="K82" s="16" t="s">
+      <c r="K82" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="L82" s="12" t="s">
+      <c r="L82" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -14230,10 +14484,10 @@
       <c r="B83" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -14254,10 +14508,10 @@
       <c r="J83" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="K83" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="L83" s="12" t="s">
+      <c r="L83" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -14268,10 +14522,10 @@
       <c r="B84" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -14292,10 +14546,10 @@
       <c r="J84" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="K84" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="L84" s="12" t="s">
+      <c r="L84" s="11" t="s">
         <v>618</v>
       </c>
     </row>
@@ -14306,10 +14560,10 @@
       <c r="B85" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -14330,10 +14584,10 @@
       <c r="J85" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="L85" s="12" t="s">
+      <c r="L85" s="11" t="s">
         <v>619</v>
       </c>
     </row>
@@ -14344,10 +14598,10 @@
       <c r="B86" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -14368,10 +14622,10 @@
       <c r="J86" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="K86" s="16" t="s">
+      <c r="K86" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="L86" s="12" t="s">
+      <c r="L86" s="11" t="s">
         <v>620</v>
       </c>
     </row>
@@ -14382,10 +14636,10 @@
       <c r="B87" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -14406,10 +14660,10 @@
       <c r="J87" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="K87" s="16" t="s">
+      <c r="K87" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="L87" s="12" t="s">
+      <c r="L87" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -14420,10 +14674,10 @@
       <c r="B88" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -14444,10 +14698,10 @@
       <c r="J88" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="K88" s="16" t="s">
+      <c r="K88" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="L88" s="12" t="s">
+      <c r="L88" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -14458,7 +14712,7 @@
       <c r="B89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -14479,10 +14733,10 @@
       <c r="J89" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="K89" s="16" t="s">
+      <c r="K89" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="L89" s="12" t="s">
+      <c r="L89" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -14493,10 +14747,10 @@
       <c r="B90" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -14517,10 +14771,10 @@
       <c r="J90" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="K90" s="16" t="s">
+      <c r="K90" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="L90" s="12" t="s">
+      <c r="L90" s="11" t="s">
         <v>621</v>
       </c>
     </row>
@@ -14531,7 +14785,7 @@
       <c r="B91" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -14552,10 +14806,10 @@
       <c r="J91" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="K91" s="16" t="s">
+      <c r="K91" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="L91" s="12" t="s">
+      <c r="L91" s="11" t="s">
         <v>622</v>
       </c>
     </row>
@@ -14566,10 +14820,10 @@
       <c r="B92" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="12" t="s">
         <v>193</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -14590,10 +14844,10 @@
       <c r="J92" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="K92" s="16" t="s">
+      <c r="K92" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="L92" s="12" t="s">
+      <c r="L92" s="11" t="s">
         <v>623</v>
       </c>
     </row>
@@ -14604,10 +14858,10 @@
       <c r="B93" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -14628,10 +14882,10 @@
       <c r="J93" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="K93" s="16" t="s">
+      <c r="K93" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="L93" s="12" t="s">
+      <c r="L93" s="11" t="s">
         <v>624</v>
       </c>
     </row>
@@ -14642,10 +14896,10 @@
       <c r="B94" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -14666,22 +14920,22 @@
       <c r="J94" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="K94" s="16" t="s">
+      <c r="K94" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="L94" s="12" t="s">
+      <c r="L94" s="11" t="s">
         <v>598</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K94 K107:K1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
